--- a/src/analysis_examples/circadipy/results_circadipy/square_05/cosinor_9_square_05_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/square_05/cosinor_9_square_05_.xlsx
@@ -571,7 +571,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>24.31000000000036</v>
+        <v>24.50000000000039</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
@@ -580,16 +580,18 @@
         <v>1.110223024625157e-16</v>
       </c>
       <c r="H2" t="n">
-        <v>1.20186524993251e-16</v>
-      </c>
-      <c r="I2" t="inlineStr"/>
+        <v>1.215018358002907e-16</v>
+      </c>
+      <c r="I2" t="n">
+        <v>8.199634704553205e-08</v>
+      </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>56.27773133803451</v>
+        <v>51.57029525989654</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[49.44015268759011, 63.11530998847892]</t>
+          <t>[44.49770505942, 58.64288546037308]</t>
         </is>
       </c>
       <c r="M2" t="n">
@@ -599,11 +601,11 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1.528342372016657</v>
+        <v>1.742184514603349</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[1.4025528763774249, 1.654131867655889]</t>
+          <t>[1.591237119836273, 1.8931319093704255]</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -613,11 +615,11 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>60.30741388230981</v>
+        <v>58.2733107637474</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[55.80592307375215, 64.80890469086748]</t>
+          <t>[53.88321426151235, 62.66340726598246]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -627,13 +629,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>18.39675675675703</v>
+        <v>17.70670670670699</v>
       </c>
       <c r="X2" t="n">
-        <v>17.91007007007033</v>
+        <v>17.11811811811839</v>
       </c>
       <c r="Y2" t="n">
-        <v>18.88344344344373</v>
+        <v>18.29529529529558</v>
       </c>
     </row>
     <row r="3">
@@ -652,7 +654,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>23.9500000000003</v>
+        <v>23.75000000000027</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
@@ -661,16 +663,18 @@
         <v>1.110223024625157e-16</v>
       </c>
       <c r="H3" t="n">
-        <v>1.20186524993251e-16</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
+        <v>1.215018358002907e-16</v>
+      </c>
+      <c r="I3" t="n">
+        <v>6.493473636570712e-08</v>
+      </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>51.72726364061715</v>
+        <v>51.18291270478535</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[42.84217920264951, 60.61234807858478]</t>
+          <t>[42.27254757518273, 60.093277834387976]</t>
         </is>
       </c>
       <c r="M3" t="n">
@@ -680,25 +684,25 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0.798763297309117</v>
+        <v>0.3962369112635775</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[0.6226580034141929, 0.9748685912040411]</t>
+          <t>[0.22013161736865428, 0.5723422051585008]</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>1.424525017035272e-05</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>1.424525017035272e-05</v>
       </c>
       <c r="S3" t="n">
-        <v>59.28219540919657</v>
+        <v>54.97536347462677</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[54.65681981622651, 63.90757100216663]</t>
+          <t>[50.150503532446415, 59.800223416807135]</t>
         </is>
       </c>
       <c r="U3" t="n">
@@ -708,13 +712,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>20.90530530530557</v>
+        <v>22.25225225225251</v>
       </c>
       <c r="X3" t="n">
-        <v>20.23403403403429</v>
+        <v>21.58658658658683</v>
       </c>
       <c r="Y3" t="n">
-        <v>21.57657657657685</v>
+        <v>22.91791791791818</v>
       </c>
     </row>
   </sheetData>

--- a/src/analysis_examples/circadipy/results_circadipy/square_05/cosinor_9_square_05_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/square_05/cosinor_9_square_05_.xlsx
@@ -571,7 +571,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>24.50000000000039</v>
+        <v>24.40000000000038</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
@@ -580,18 +580,18 @@
         <v>1.110223024625157e-16</v>
       </c>
       <c r="H2" t="n">
-        <v>1.215018358002907e-16</v>
+        <v>1.20186524993251e-16</v>
       </c>
       <c r="I2" t="n">
-        <v>8.199634704553205e-08</v>
+        <v>0.534719533270825</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>51.57029525989654</v>
+        <v>57.45066610876999</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[44.49770505942, 58.64288546037308]</t>
+          <t>[51.579064847046126, 63.32226737049386]</t>
         </is>
       </c>
       <c r="M2" t="n">
@@ -601,11 +601,11 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1.742184514603349</v>
+        <v>1.616395018964117</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[1.591237119836273, 1.8931319093704255]</t>
+          <t>[1.503184472888809, 1.7296055650394253]</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -615,11 +615,11 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>58.2733107637474</v>
+        <v>57.58045518324909</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[53.88321426151235, 62.66340726598246]</t>
+          <t>[53.66726104325485, 61.493649323243325]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -629,13 +629,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>17.70670670670699</v>
+        <v>18.12292292292321</v>
       </c>
       <c r="X2" t="n">
-        <v>17.11811811811839</v>
+        <v>17.68328328328356</v>
       </c>
       <c r="Y2" t="n">
-        <v>18.29529529529558</v>
+        <v>18.56256256256285</v>
       </c>
     </row>
     <row r="3">
@@ -654,7 +654,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>23.75000000000027</v>
+        <v>24.07000000000032</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
@@ -663,18 +663,16 @@
         <v>1.110223024625157e-16</v>
       </c>
       <c r="H3" t="n">
-        <v>1.215018358002907e-16</v>
-      </c>
-      <c r="I3" t="n">
-        <v>6.493473636570712e-08</v>
-      </c>
+        <v>1.20186524993251e-16</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>51.18291270478535</v>
+        <v>54.10320442938772</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[42.27254757518273, 60.093277834387976]</t>
+          <t>[45.43374557928679, 62.77266327948864]</t>
         </is>
       </c>
       <c r="M3" t="n">
@@ -684,25 +682,25 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0.3962369112635775</v>
+        <v>1.050342288587578</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[0.22013161736865428, 0.5723422051585008]</t>
+          <t>[0.8993948938205012, 1.2012896833546556]</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>1.424525017035272e-05</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>1.424525017035272e-05</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>54.97536347462677</v>
+        <v>59.42683874232014</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[50.150503532446415, 59.800223416807135]</t>
+          <t>[54.85588821935992, 63.99778926528037]</t>
         </is>
       </c>
       <c r="U3" t="n">
@@ -712,13 +710,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>22.25225225225251</v>
+        <v>20.04628628628656</v>
       </c>
       <c r="X3" t="n">
-        <v>21.58658658658683</v>
+        <v>19.46802802802829</v>
       </c>
       <c r="Y3" t="n">
-        <v>22.91791791791818</v>
+        <v>20.62454454454482</v>
       </c>
     </row>
   </sheetData>
